--- a/data/outputs/OR_elsevier/40.xlsx
+++ b/data/outputs/OR_elsevier/40.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:BU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -957,6 +967,12 @@
           <t>2-s2.0-84940176488</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1179,6 +1195,12 @@
         <is>
           <t>2-s2.0-84937813546</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1387,6 +1409,12 @@
           <t>2-s2.0-84939965746</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1606,6 +1634,12 @@
           <t>2-s2.0-84937778752</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1837,6 +1871,12 @@
           <t>2-s2.0-84946482104</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2072,6 +2112,12 @@
           <t>2-s2.0-84946475620</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2307,6 +2353,12 @@
           <t>2-s2.0-84946475940</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2530,6 +2582,12 @@
           <t>2-s2.0-84942303191</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2743,6 +2801,12 @@
           <t>2-s2.0-84949318215</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2970,6 +3034,12 @@
           <t>2-s2.0-84945980692</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3189,6 +3259,12 @@
           <t>2-s2.0-84928231304</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3420,6 +3496,12 @@
           <t>2-s2.0-84946479328</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3639,6 +3721,12 @@
           <t>2-s2.0-84937802109</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3870,6 +3958,12 @@
           <t>2-s2.0-84946484421</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4104,6 +4198,12 @@
         <is>
           <t>2-s2.0-84946475033</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -4308,6 +4408,12 @@
           <t>2-s2.0-84937812185</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4519,6 +4625,12 @@
           <t>2-s2.0-85027957480</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4742,6 +4854,12 @@
           <t>2-s2.0-84949320872</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4963,6 +5081,12 @@
           <t>2-s2.0-84949321965</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5198,6 +5322,12 @@
           <t>2-s2.0-84946473208</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5421,6 +5551,12 @@
           <t>2-s2.0-84937815801</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5636,6 +5772,12 @@
           <t>2-s2.0-84949316729</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5851,6 +5993,12 @@
           <t>2-s2.0-84949319086</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6082,6 +6230,12 @@
           <t>2-s2.0-84945930697</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6309,6 +6463,12 @@
           <t>2-s2.0-84946481018</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6519,6 +6679,12 @@
         <is>
           <t>2-s2.0-84939873758</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -6739,6 +6905,12 @@
           <t>2-s2.0-84946484572</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6973,6 +7145,12 @@
         <is>
           <t>2-s2.0-84946476597</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -7195,6 +7373,12 @@
           <t>2-s2.0-84946479991</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7414,6 +7598,12 @@
           <t>2-s2.0-84939975387</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7645,6 +7835,12 @@
           <t>2-s2.0-84946473347</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7863,6 +8059,12 @@
         <is>
           <t>2-s2.0-84937818199</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -8083,6 +8285,12 @@
           <t>2-s2.0-84946480498</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8306,6 +8514,12 @@
           <t>2-s2.0-84939947974</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8520,6 +8734,12 @@
         <is>
           <t>2-s2.0-84949316971</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -8740,6 +8960,12 @@
           <t>2-s2.0-84946483908</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8959,6 +9185,12 @@
           <t>2-s2.0-84945895692</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9174,6 +9406,12 @@
           <t>2-s2.0-84949217545</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9385,6 +9623,12 @@
           <t>2-s2.0-84937780439</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9602,6 +9846,12 @@
           <t>2-s2.0-84928267185</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9821,6 +10071,12 @@
           <t>2-s2.0-84928252420</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10050,6 +10306,12 @@
           <t>2-s2.0-84946474013</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10272,6 +10534,12 @@
         <is>
           <t>2-s2.0-84946532156</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -10476,6 +10744,12 @@
           <t>2-s2.0-84946474633</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10710,6 +10984,12 @@
         <is>
           <t>2-s2.0-84946475583</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -10914,6 +11194,12 @@
           <t>2-s2.0-84946473902</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11129,6 +11415,12 @@
           <t>2-s2.0-84937814041</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11340,6 +11632,12 @@
           <t>2-s2.0-84939887201</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
